--- a/docs/Stiffness Check.xlsx
+++ b/docs/Stiffness Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroser\Documents\Code Workshop\3D_Model\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroser\Documents\Code Workshop\Model_10_Story\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE87392-FAED-4A51-9FB1-3A9316C40F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81972E5-3AC5-4582-AFC0-182387AE1B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14970" windowHeight="11865" activeTab="1" xr2:uid="{AB32BF37-6F52-4D9C-998A-01C7DF953824}"/>
+    <workbookView xWindow="9585" yWindow="2115" windowWidth="16665" windowHeight="15255" activeTab="1" xr2:uid="{AB32BF37-6F52-4D9C-998A-01C7DF953824}"/>
   </bookViews>
   <sheets>
     <sheet name="eleProperties" sheetId="3" r:id="rId1"/>
@@ -383,9 +383,8 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -840,7 +839,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="D2">
@@ -863,7 +862,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
@@ -886,7 +885,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="D4">
@@ -909,7 +908,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="D5">
@@ -932,7 +931,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
@@ -955,7 +954,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="D7">
@@ -978,7 +977,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
@@ -1001,7 +1000,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
@@ -1024,7 +1023,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
@@ -1053,7 +1052,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
@@ -1082,7 +1081,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="E12">
@@ -1099,7 +1098,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
@@ -1129,7 +1128,7 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1146,7 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1173,7 +1172,7 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>VLOOKUP($C$3,eleProperties[],MATCH("Iy",eleProperties[#Headers],0),FALSE)</f>
         <v>889475.7912902832</v>
       </c>
@@ -1186,15 +1185,15 @@
       <c r="H5">
         <v>33484455</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f>H5-$C$35</f>
         <v>32856016.5502606</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>I5/$C$4/$C$5*$G5</f>
         <v>1.0794503393173589</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f>H5/$C$4/$C$5*$G5</f>
         <v>1.100097032648961</v>
       </c>
@@ -1203,7 +1202,7 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -1215,22 +1214,22 @@
       <c r="H6">
         <v>66968878</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f>H6-$C$35</f>
         <v>66340439.550260596</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>I6/$C$4/$C$5*$G6</f>
         <v>1.089773160319758</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f t="shared" ref="K6:K8" si="0">H6/$C$4/$C$5*$G6</f>
         <v>1.1000965069855591</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>25</v>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G7">
         <v>117.125</v>
@@ -1238,15 +1237,15 @@
       <c r="H7">
         <v>16742232</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f>H7-$C$35</f>
         <v>16113793.550260598</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>I7/$C$4/$C$5*$G7</f>
         <v>1.0588039416714201</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>1.1000973283346245</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>55</v>
       </c>
       <c r="C8">
-        <v>24.75</v>
+        <v>18.375</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1267,15 +1266,15 @@
       <c r="H8">
         <v>79229580</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f>H8-$C$35</f>
         <v>78601141.550260603</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>I8/$C$4/$C$5*$G8</f>
         <v>1.0913704913918509</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f t="shared" si="0"/>
         <v>1.1000963084242035</v>
       </c>
@@ -1284,16 +1283,16 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>$C$4*$C$5/$C$8</f>
-        <v>72020585.282655656</v>
+        <v>97007318.952148438</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
@@ -1345,13 +1344,13 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
       <c r="G14">
@@ -1360,26 +1359,26 @@
       <c r="H14">
         <v>58555</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>325000</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>G14*H14/I14</f>
         <v>90.08461538461539</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>2</v>
       </c>
       <c r="G15">
@@ -1388,27 +1387,27 @@
       <c r="H15">
         <v>61723</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>260000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f t="shared" ref="J15:J19" si="1">G15*H15/I15</f>
         <v>111.57619230769231</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f>$C$13/3*C15*C14/$C$9</f>
-        <v>9.7310141341230022E-5</v>
+        <v>7.2245407965458653E-5</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G16">
@@ -1417,14 +1416,14 @@
       <c r="H16">
         <v>61152</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>537000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>101.5783687150838</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
@@ -1436,20 +1435,20 @@
       <c r="H17">
         <v>61152</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>325000</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>167.83872</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G18">
@@ -1458,26 +1457,26 @@
       <c r="H18">
         <v>61723</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>395000</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>111.88270379746835</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>5</v>
       </c>
       <c r="G19">
@@ -1486,14 +1485,14 @@
       <c r="H19">
         <v>61909</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>565000</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>151.86880353982301</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1564,11 +1563,11 @@
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>16*C$20*C$21/27/PI()*POWER(C$22/C$23,3)</f>
         <v>8.907330495165743</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f>16*D$20*D$21/27/PI()*POWER(D$22/D$23,3)</f>
         <v>28.007497422559556</v>
       </c>
@@ -1577,11 +1576,11 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>C$24*C$21*C$22^2/2/C$23</f>
         <v>4.8176470588235301</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f>D$24*D$21*D$22^2/2/D$23</f>
         <v>10.92</v>
       </c>
@@ -1590,11 +1589,11 @@
       <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>C$26/C$25</f>
         <v>0.54086317572231113</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f>D$26/D$25</f>
         <v>0.38989559956913994</v>
       </c>
@@ -1616,11 +1615,11 @@
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f>C$25*C$28</f>
         <v>8.0522267676298317E-2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f>D$25*D$28</f>
         <v>0.25318777669993836</v>
       </c>
@@ -1629,17 +1628,17 @@
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>8</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1647,21 +1646,21 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <f>C$31*C25+D$31*D25</f>
         <v>127.27363880644506</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f>C$31*C29+D$31*D29</f>
         <v>1.1505536948102633</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -1671,28 +1670,28 @@
         <f>IF(ISNUMBER(SEARCH("CLT",$C$3)),55.6875,IF(ISNUMBER(SEARCH("MPP",$C$3)),49.6875,NA()))</f>
         <v>49.6875</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f>2*C32*C34^2</f>
         <v>628438.44973940193</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <f>C35+C9</f>
-        <v>72649023.732395053</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>97635757.401887834</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
